--- a/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:11:35+00:00</t>
+    <t>2026-02-24T10:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:44:05+00:00</t>
+    <t>2026-02-24T16:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension DMI referenceFabricant</t>
+    <t>Extension DMI Reference Fabricant</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T16:11:45+00:00</t>
+    <t>2026-02-25T08:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension pour référencer l'organisation fabricant du DMI</t>
+    <t>Extension créée dans ce volet pour référencer l'organisation fabricant du DMI.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:15:31+00:00</t>
+    <t>2026-02-25T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:31:26+00:00</t>
+    <t>2026-02-25T08:48:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:48:17+00:00</t>
+    <t>2026-02-26T17:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-reference-fabricant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-26T17:10:09+00:00</t>
+    <t>2026-02-27T10:05:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
